--- a/input_data/data_ground_truth/3_cenarios_e_referencia_temporal/referencia_temporal.xlsx
+++ b/input_data/data_ground_truth/3_cenarios_e_referencia_temporal/referencia_temporal.xlsx
@@ -25,13 +25,13 @@
     <t>simbolo</t>
   </si>
   <si>
-    <t>Tempo Presente</t>
+    <t>Tempo Presente.</t>
   </si>
   <si>
-    <t>Década de 2030</t>
+    <t>Década de 2030.</t>
   </si>
   <si>
-    <t>Década de 2050</t>
+    <t>Década de 2050.</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="15" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="113.7192857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="17" width="18.14785714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="16" width="7.576428571428571" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="16" width="7.576428571428571" customWidth="1" bestFit="1"/>
@@ -647,7 +647,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="134.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="9"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
@@ -666,7 +666,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="9"/>
       <c r="B9" s="5"/>
       <c r="C9" s="10"/>
